--- a/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
+++ b/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\elec\EDLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/elec/EDLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594E81E-240A-45D7-BD4A-591493174C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98E12A7-9B3F-7A44-923A-7560A93885F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EDLE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Exponent</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>EDLE Electricity Dispatch Logit Exponent</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -128,13 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,18 +453,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -468,42 +478,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -524,13 +534,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -538,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
